--- a/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438ABE6-D3B8-470E-ACE4-C402C4B2A9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F525E-7045-47F9-8C74-E0AA112927BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16643" yWindow="14003" windowWidth="11783" windowHeight="11513" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16643" yWindow="14603" windowWidth="11783" windowHeight="11513" tabRatio="516" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8101" uniqueCount="1367">
   <si>
     <t>A</t>
   </si>
@@ -3685,33 +3685,18 @@
     <t>0x0205</t>
   </si>
   <si>
-    <t>Dec Val</t>
-  </si>
-  <si>
     <t>Pin and Port Number</t>
   </si>
   <si>
     <t>519</t>
   </si>
   <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
     <t>513</t>
   </si>
   <si>
-    <t>518</t>
-  </si>
-  <si>
     <t>516</t>
   </si>
   <si>
-    <t>514</t>
-  </si>
-  <si>
     <t>0x0204</t>
   </si>
   <si>
@@ -4136,6 +4121,24 @@
   </si>
   <si>
     <t>0x200000AE</t>
+  </si>
+  <si>
+    <t>DRV_0</t>
+  </si>
+  <si>
+    <t>DRV_1</t>
+  </si>
+  <si>
+    <t>DRV_2</t>
+  </si>
+  <si>
+    <t>DRV_3</t>
+  </si>
+  <si>
+    <t>DRV_4</t>
+  </si>
+  <si>
+    <t>DRV_5</t>
   </si>
 </sst>
 </file>
@@ -4513,6 +4516,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4532,15 +4544,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6444,7 +6447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E31A14-73C6-4329-8F42-512A0B93AC1A}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+    <sheetView topLeftCell="D9" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -6472,97 +6475,97 @@
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="64" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
       <c r="I3" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="69"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="I4" s="57" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="57" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="L4" s="57"/>
       <c r="M4" s="57" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
       <c r="R4" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="S4" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="31"/>
       <c r="C5" s="48" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J5" t="s">
         <v>1309</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="K5" t="s">
         <v>1310</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>1313</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>1314</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>1315</v>
       </c>
-      <c r="L5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="P5" t="s">
         <v>1319</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>1320</v>
       </c>
-      <c r="O5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="U5" t="s">
         <v>1324</v>
       </c>
-      <c r="Q5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="S5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1329</v>
-      </c>
     </row>
     <row r="6" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="69"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="49" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="C6" s="43">
         <v>30</v>
@@ -6621,9 +6624,9 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="69"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="50" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="C7" s="43">
         <f>C6*1000</f>
@@ -6685,9 +6688,9 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="69"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="49" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C8" s="43">
         <v>2</v>
@@ -6746,9 +6749,9 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="69"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="49" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="C9" s="43">
         <f>24*60*60</f>
@@ -6763,13 +6766,13 @@
         <v>86400</v>
       </c>
       <c r="P9" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="70"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="49" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="C10" s="44">
         <f>C7/C8*C9</f>
@@ -6784,16 +6787,16 @@
         <v>5184000000</v>
       </c>
       <c r="O10" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="P10" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="R10" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
@@ -6801,22 +6804,22 @@
         <v>941</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="O11" t="s">
         <v>883</v>
       </c>
       <c r="P11" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="Q11" s="41">
         <v>537133056</v>
@@ -6824,7 +6827,7 @@
     </row>
     <row r="12" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="47" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="B12" s="45">
         <v>2147483647</v>
@@ -6842,10 +6845,10 @@
         <v>0.41425224672067901</v>
       </c>
       <c r="O12" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="P12" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="Q12" s="41">
         <v>537153536</v>
@@ -6857,7 +6860,7 @@
     </row>
     <row r="13" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="47" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="B13" s="45">
         <v>4294967295</v>
@@ -6875,10 +6878,10 @@
         <v>0.82850449363425926</v>
       </c>
       <c r="O13" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="P13" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="Q13" s="41">
         <v>537198592</v>
@@ -6890,7 +6893,7 @@
     </row>
     <row r="14" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A14" s="47" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="B14" s="45">
         <v>9.2233720368547697E+18</v>
@@ -6909,10 +6912,10 @@
       </c>
       <c r="J14" s="42"/>
       <c r="O14" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="P14" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="Q14" s="41">
         <v>536739840</v>
@@ -6920,7 +6923,7 @@
     </row>
     <row r="15" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="47" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B15" s="45">
         <v>1.84467440737095E+19</v>
@@ -6938,10 +6941,10 @@
         <v>3558399705.5766783</v>
       </c>
       <c r="O15" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="P15" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="Q15" s="41">
         <v>536870912</v>
@@ -6953,10 +6956,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O16" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="P16" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="Q16" s="41">
         <v>536870912</v>
@@ -6964,10 +6967,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="O17" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="P17" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="Q17" s="41">
         <v>536871080</v>
@@ -6979,16 +6982,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I18" s="56" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
       <c r="L18" s="56"/>
       <c r="O18" s="55" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="P18" s="55" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="Q18" s="41">
         <v>537395200</v>
@@ -6999,23 +7002,23 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="71" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="B19" s="74" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="I19" s="54" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="J19" s="54" t="s">
         <v>883</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="R19">
         <f>SUM(R15:R18)</f>
@@ -7023,23 +7026,23 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="71" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
+      <c r="B20" s="74" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="I20" s="54" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K20" s="54" t="s">
         <v>1331</v>
       </c>
-      <c r="J20" s="54" t="s">
-        <v>1334</v>
-      </c>
-      <c r="K20" s="54" t="s">
-        <v>1336</v>
-      </c>
       <c r="L20" s="54" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -7059,7 +7062,7 @@
     </row>
     <row r="24" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="64" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -7067,46 +7070,46 @@
       <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="73"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="66"/>
       <c r="I25" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="64" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="H26" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="I26" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="J26" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="K26" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="M26" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="N26" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="O26" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="P26" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
@@ -7114,7 +7117,7 @@
         <v>941</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C27" s="52">
         <f>L6</f>
@@ -7157,7 +7160,7 @@
     </row>
     <row r="28" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="B28" s="45">
         <v>2147483647</v>
@@ -7209,7 +7212,7 @@
     </row>
     <row r="29" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="47" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="B29" s="45">
         <v>4294967295</v>
@@ -7261,7 +7264,7 @@
     </row>
     <row r="30" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="47" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="B30" s="45">
         <v>9.2233720368547697E+18</v>
@@ -7313,7 +7316,7 @@
     </row>
     <row r="31" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B31" s="45">
         <v>1.84467440737095E+19</v>
@@ -7839,6 +7842,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="C26:E26"/>
@@ -7847,11 +7855,6 @@
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I18:L18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8920,8 +8923,8 @@
   </sheetPr>
   <dimension ref="A2:AG236"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -8951,7 +8954,7 @@
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="G2" s="58" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
@@ -8979,9 +8982,7 @@
       <c r="H3" s="33" t="s">
         <v>1211</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>1215</v>
-      </c>
+      <c r="I3" s="33"/>
       <c r="J3" s="4" t="s">
         <v>786</v>
       </c>
@@ -12618,7 +12619,7 @@
         <v>1212</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J57" s="4">
         <v>1</v>
@@ -12677,7 +12678,7 @@
         <v>1213</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>1221</v>
+        <v>1361</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
@@ -12772,7 +12773,7 @@
         <v>1214</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>1218</v>
+        <v>1362</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
@@ -12860,10 +12861,10 @@
         <v>1135</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="J60" s="4">
         <v>1</v>
@@ -12953,10 +12954,10 @@
         <v>1134</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>1219</v>
+        <v>1363</v>
       </c>
       <c r="J61" s="4">
         <v>1</v>
@@ -13048,10 +13049,10 @@
         <v>1133</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>1223</v>
+        <v>1364</v>
       </c>
       <c r="J62" s="4">
         <v>1</v>
@@ -13141,10 +13142,10 @@
         <v>1132</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="J63" s="4">
         <v>1</v>
@@ -13235,10 +13236,10 @@
         <v>1131</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="J64" s="4">
         <v>1</v>
@@ -13329,10 +13330,10 @@
         <v>1130</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="J65" s="4">
         <v>1</v>
@@ -13976,10 +13977,10 @@
         <v>1129</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="J76" s="10">
         <v>1</v>
@@ -14073,10 +14074,10 @@
         <v>1128</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>126</v>
@@ -14170,10 +14171,10 @@
         <v>1127</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="J78" s="4">
         <v>1</v>
@@ -14267,10 +14268,10 @@
         <v>1126</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="J79" s="10">
         <v>1</v>
@@ -14364,10 +14365,10 @@
         <v>1125</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="J80" s="10">
         <v>1</v>
@@ -14461,10 +14462,10 @@
         <v>1124</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="I81" s="36" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="J81" s="4">
         <v>1</v>
@@ -14558,7 +14559,7 @@
         <v>1123</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="I82" s="36"/>
       <c r="J82" s="4">
@@ -14653,7 +14654,7 @@
         <v>1122</v>
       </c>
       <c r="H83" s="36" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="I83" s="36"/>
       <c r="J83" s="4">
@@ -14748,7 +14749,7 @@
         <v>1121</v>
       </c>
       <c r="H84" s="36" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="I84" s="36"/>
       <c r="J84" s="4">
@@ -14843,7 +14844,7 @@
         <v>1120</v>
       </c>
       <c r="H85" s="36" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="I85" s="36"/>
       <c r="J85" s="4">
@@ -14981,7 +14982,7 @@
         <v>1119</v>
       </c>
       <c r="H87" s="36" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="I87" s="36"/>
       <c r="J87" s="4">
@@ -15076,7 +15077,7 @@
         <v>1118</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="I88" s="36"/>
       <c r="J88" s="4">
@@ -15171,9 +15172,11 @@
         <v>1117</v>
       </c>
       <c r="H89" s="36" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I89" s="36"/>
+        <v>1236</v>
+      </c>
+      <c r="I89" s="36" t="s">
+        <v>1365</v>
+      </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>1116</v>
       </c>
       <c r="H90" s="36" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I90" s="36"/>
       <c r="J90" s="4">
@@ -15447,7 +15450,7 @@
         <v>1115</v>
       </c>
       <c r="H93" s="36" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="I93" s="36"/>
       <c r="J93" s="4">
@@ -15540,7 +15543,7 @@
         <v>1114</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="I94" s="36"/>
       <c r="J94" s="4">
@@ -15633,7 +15636,7 @@
         <v>1113</v>
       </c>
       <c r="H95" s="36" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="I95" s="36"/>
       <c r="J95" s="4">
@@ -16064,7 +16067,7 @@
         <v>1112</v>
       </c>
       <c r="H100" s="36" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I100" s="36"/>
       <c r="J100" s="4">
@@ -16157,7 +16160,7 @@
         <v>1111</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I101" s="36"/>
       <c r="J101" s="4">
@@ -16248,7 +16251,7 @@
         <v>1110</v>
       </c>
       <c r="H102" s="36" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="I102" s="36"/>
       <c r="J102" s="4">
@@ -16339,7 +16342,7 @@
         <v>1109</v>
       </c>
       <c r="H103" s="36" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="I103" s="36"/>
       <c r="J103" s="4">
@@ -16430,7 +16433,7 @@
         <v>1108</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="I104" s="36"/>
       <c r="J104" s="4">
@@ -16603,7 +16606,7 @@
         <v>1107</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="I107" s="36"/>
       <c r="J107" s="4">
@@ -16696,7 +16699,7 @@
         <v>1106</v>
       </c>
       <c r="H108" s="36" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="I108" s="36"/>
       <c r="J108" s="4">
@@ -16789,7 +16792,7 @@
         <v>1105</v>
       </c>
       <c r="H109" s="36" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="I109" s="36"/>
       <c r="J109" s="4">
@@ -16882,7 +16885,7 @@
         <v>1104</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="I110" s="36"/>
       <c r="J110" s="4">
@@ -16973,7 +16976,7 @@
         <v>1103</v>
       </c>
       <c r="H111" s="36" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="I111" s="36"/>
       <c r="J111" s="4">
@@ -17066,7 +17069,7 @@
         <v>1102</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="I112" s="36"/>
       <c r="J112" s="4">
@@ -17159,7 +17162,7 @@
         <v>1101</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="I113" s="36"/>
       <c r="J113" s="4">
@@ -17252,7 +17255,7 @@
         <v>1100</v>
       </c>
       <c r="H114" s="36" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="I114" s="36"/>
       <c r="J114" s="4">
@@ -17345,7 +17348,7 @@
         <v>1099</v>
       </c>
       <c r="H115" s="36" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="I115" s="36"/>
       <c r="J115" s="4">
@@ -17438,7 +17441,7 @@
         <v>1098</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="I116" s="36"/>
       <c r="J116" s="4">
@@ -17531,7 +17534,7 @@
         <v>1097</v>
       </c>
       <c r="H117" s="36" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="4">
@@ -17747,9 +17750,11 @@
         <v>1096</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I121" s="36"/>
+        <v>1272</v>
+      </c>
+      <c r="I121" s="36" t="s">
+        <v>1366</v>
+      </c>
       <c r="J121" s="4">
         <v>1</v>
       </c>
@@ -17838,9 +17843,11 @@
         <v>1095</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I122" s="36"/>
+        <v>1271</v>
+      </c>
+      <c r="I122" s="36" t="s">
+        <v>1366</v>
+      </c>
       <c r="J122" s="4">
         <v>1</v>
       </c>
@@ -17929,9 +17936,11 @@
         <v>1094</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>1275</v>
-      </c>
-      <c r="I123" s="36"/>
+        <v>1270</v>
+      </c>
+      <c r="I123" s="36" t="s">
+        <v>1366</v>
+      </c>
       <c r="J123" s="4">
         <v>1</v>
       </c>
@@ -18020,9 +18029,11 @@
         <v>1093</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I124" s="36"/>
+        <v>1269</v>
+      </c>
+      <c r="I124" s="36" t="s">
+        <v>1365</v>
+      </c>
       <c r="J124" s="4">
         <v>1</v>
       </c>
@@ -18111,9 +18122,11 @@
         <v>1092</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I125" s="36"/>
+        <v>1268</v>
+      </c>
+      <c r="I125" s="36" t="s">
+        <v>1365</v>
+      </c>
       <c r="J125" s="4">
         <v>1</v>
       </c>
@@ -18202,9 +18215,11 @@
         <v>1091</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I126" s="36"/>
+        <v>1267</v>
+      </c>
+      <c r="I126" s="36" t="s">
+        <v>1365</v>
+      </c>
       <c r="J126" s="4">
         <v>1</v>
       </c>
@@ -18293,9 +18308,11 @@
         <v>1090</v>
       </c>
       <c r="H127" s="36" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I127" s="36"/>
+        <v>1266</v>
+      </c>
+      <c r="I127" s="36" t="s">
+        <v>1364</v>
+      </c>
       <c r="J127" s="4">
         <v>1</v>
       </c>
@@ -18384,9 +18401,11 @@
         <v>1089</v>
       </c>
       <c r="H128" s="36" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I128" s="36"/>
+        <v>1265</v>
+      </c>
+      <c r="I128" s="36" t="s">
+        <v>1364</v>
+      </c>
       <c r="J128" s="4">
         <v>1</v>
       </c>
@@ -18475,9 +18494,11 @@
         <v>1088</v>
       </c>
       <c r="H129" s="36" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I129" s="36"/>
+        <v>1264</v>
+      </c>
+      <c r="I129" s="36" t="s">
+        <v>1364</v>
+      </c>
       <c r="J129" s="4">
         <v>1</v>
       </c>
@@ -18568,9 +18589,11 @@
         <v>1087</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I130" s="36"/>
+        <v>1263</v>
+      </c>
+      <c r="I130" s="36" t="s">
+        <v>1363</v>
+      </c>
       <c r="J130" s="4">
         <v>1</v>
       </c>
@@ -18745,9 +18768,11 @@
         <v>1086</v>
       </c>
       <c r="H133" s="36" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I133" s="36"/>
+        <v>1262</v>
+      </c>
+      <c r="I133" s="36" t="s">
+        <v>1363</v>
+      </c>
       <c r="J133" s="4">
         <v>1</v>
       </c>
@@ -18840,9 +18865,11 @@
         <v>1085</v>
       </c>
       <c r="H134" s="36" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I134" s="36"/>
+        <v>1261</v>
+      </c>
+      <c r="I134" s="36" t="s">
+        <v>1363</v>
+      </c>
       <c r="J134" s="4">
         <v>1</v>
       </c>
@@ -18933,9 +18960,11 @@
         <v>1084</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I135" s="36"/>
+        <v>1260</v>
+      </c>
+      <c r="I135" s="36" t="s">
+        <v>1362</v>
+      </c>
       <c r="J135" s="4">
         <v>1</v>
       </c>
@@ -19026,9 +19055,11 @@
         <v>1083</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I136" s="36"/>
+        <v>1259</v>
+      </c>
+      <c r="I136" s="36" t="s">
+        <v>1362</v>
+      </c>
       <c r="J136" s="4">
         <v>1</v>
       </c>
@@ -19119,9 +19150,11 @@
         <v>1082</v>
       </c>
       <c r="H137" s="36" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I137" s="36"/>
+        <v>1258</v>
+      </c>
+      <c r="I137" s="36" t="s">
+        <v>1362</v>
+      </c>
       <c r="J137" s="4">
         <v>1</v>
       </c>
@@ -19212,9 +19245,11 @@
         <v>1081</v>
       </c>
       <c r="H138" s="36" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I138" s="36"/>
+        <v>1256</v>
+      </c>
+      <c r="I138" s="36" t="s">
+        <v>1361</v>
+      </c>
       <c r="J138" s="4">
         <v>1</v>
       </c>
@@ -19305,7 +19340,7 @@
         <v>1080</v>
       </c>
       <c r="H139" s="36" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="I139" s="36"/>
       <c r="J139" s="4">
@@ -19400,7 +19435,7 @@
         <v>1079</v>
       </c>
       <c r="H140" s="36" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="I140" s="36"/>
       <c r="J140" s="4">
@@ -19495,9 +19530,11 @@
         <v>1078</v>
       </c>
       <c r="H141" s="36" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I141" s="36"/>
+        <v>1254</v>
+      </c>
+      <c r="I141" s="36" t="s">
+        <v>1361</v>
+      </c>
       <c r="J141" s="4">
         <v>1</v>
       </c>
@@ -19588,9 +19625,11 @@
         <v>1077</v>
       </c>
       <c r="H142" s="36" t="s">
-        <v>1258</v>
-      </c>
-      <c r="I142" s="36"/>
+        <v>1253</v>
+      </c>
+      <c r="I142" s="36" t="s">
+        <v>1361</v>
+      </c>
       <c r="J142" s="4">
         <v>1</v>
       </c>
@@ -19681,9 +19720,11 @@
         <v>1076</v>
       </c>
       <c r="H143" s="36" t="s">
-        <v>1257</v>
-      </c>
-      <c r="I143" s="36"/>
+        <v>1252</v>
+      </c>
+      <c r="I143" s="36" t="s">
+        <v>1361</v>
+      </c>
       <c r="J143" s="4">
         <v>1</v>
       </c>
@@ -19774,9 +19815,11 @@
         <v>1075</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I144" s="36"/>
+        <v>1251</v>
+      </c>
+      <c r="I144" s="36" t="s">
+        <v>1361</v>
+      </c>
       <c r="J144" s="4">
         <v>1</v>
       </c>
@@ -19867,9 +19910,11 @@
         <v>1074</v>
       </c>
       <c r="H145" s="36" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I145" s="36"/>
+        <v>1250</v>
+      </c>
+      <c r="I145" s="36" t="s">
+        <v>1361</v>
+      </c>
       <c r="J145" s="4">
         <v>1</v>
       </c>
@@ -36513,6 +36558,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:K3"/>
@@ -36529,14 +36582,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98A3ABC-4D6F-41A3-88AF-AC798073F809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4F2ED-D748-49EC-BB9D-1B90CB1499AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -25,20 +25,7 @@
     <sheet name="UDPRx cases" sheetId="20" r:id="rId10"/>
     <sheet name="Motor Ticks and Time" sheetId="21" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -4492,6 +4479,9 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4519,6 +4509,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4538,18 +4537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5023,23 +5010,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>899</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="N1" s="43" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="N1" s="44" t="s">
         <v>899</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -6162,7 +6149,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:Q33">
+  <sortState ref="N3:Q33">
     <sortCondition ref="N3:N33"/>
   </sortState>
   <mergeCells count="3">
@@ -6453,8 +6440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E31A14-73C6-4329-8F42-512A0B93AC1A}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6481,37 +6468,37 @@
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="55"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="52" t="s">
         <v>1299</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="I3" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
-      <c r="I4" s="44" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="I4" s="45" t="s">
         <v>1311</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45" t="s">
         <v>1312</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45" t="s">
         <v>1318</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
       <c r="R4" t="s">
         <v>1316</v>
       </c>
@@ -6520,7 +6507,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="56"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
         <v>1304</v>
@@ -6569,7 +6556,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="56"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="38" t="s">
         <v>1307</v>
       </c>
@@ -6583,17 +6570,17 @@
         <v>120</v>
       </c>
       <c r="I6" s="30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J6" s="30">
         <v>800</v>
       </c>
       <c r="K6" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="30">
         <f>I6*J6*K6</f>
-        <v>48000</v>
+        <v>16000</v>
       </c>
       <c r="M6" s="30">
         <v>20</v>
@@ -6603,7 +6590,7 @@
       </c>
       <c r="O6" s="30">
         <f>N6*L6</f>
-        <v>960000</v>
+        <v>320000</v>
       </c>
       <c r="P6">
         <f>N6/M6</f>
@@ -6615,7 +6602,7 @@
       </c>
       <c r="R6" s="31">
         <f>O6/Q6</f>
-        <v>16000</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -6630,7 +6617,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="56"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="39" t="s">
         <v>1297</v>
       </c>
@@ -6647,17 +6634,17 @@
         <v>120000</v>
       </c>
       <c r="I7" s="30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J7" s="30">
         <v>1600</v>
       </c>
       <c r="K7" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="30">
         <f>I7*J7*K7</f>
-        <v>96000</v>
+        <v>32000</v>
       </c>
       <c r="M7" s="30">
         <v>20</v>
@@ -6667,7 +6654,7 @@
       </c>
       <c r="O7" s="30">
         <f>N7*L7</f>
-        <v>1920000</v>
+        <v>640000</v>
       </c>
       <c r="P7">
         <f>N7/M7</f>
@@ -6679,7 +6666,7 @@
       </c>
       <c r="R7" s="31">
         <f>O7/Q7</f>
-        <v>32000</v>
+        <v>10666.666666666666</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -6694,7 +6681,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="56"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="38" t="s">
         <v>1289</v>
       </c>
@@ -6708,17 +6695,17 @@
         <v>2</v>
       </c>
       <c r="I8" s="30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J8" s="30">
         <v>3200</v>
       </c>
       <c r="K8" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="30">
         <f>I8*J8*K8</f>
-        <v>192000</v>
+        <v>64000</v>
       </c>
       <c r="M8" s="30">
         <v>20</v>
@@ -6728,7 +6715,7 @@
       </c>
       <c r="O8" s="30">
         <f>N8*L8</f>
-        <v>3840000</v>
+        <v>1280000</v>
       </c>
       <c r="P8">
         <f>N8/M8</f>
@@ -6740,7 +6727,7 @@
       </c>
       <c r="R8" s="31">
         <f>O8/Q8</f>
-        <v>64000</v>
+        <v>21333.333333333332</v>
       </c>
       <c r="S8">
         <v>5</v>
@@ -6755,7 +6742,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="56"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="38" t="s">
         <v>1296</v>
       </c>
@@ -6776,7 +6763,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="57"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="38" t="s">
         <v>1290</v>
       </c>
@@ -6987,12 +6974,12 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="44" t="s">
         <v>1327</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
       <c r="O18" s="3" t="s">
         <v>1348</v>
       </c>
@@ -7008,12 +6995,12 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="62" t="s">
         <v>1302</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
       <c r="I19" s="4" t="s">
         <v>1328</v>
       </c>
@@ -7032,12 +7019,12 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="62" t="s">
         <v>1303</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="I20" s="4" t="s">
         <v>1326</v>
       </c>
@@ -7067,32 +7054,32 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>1321</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="54"/>
       <c r="I25" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="51" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52" t="s">
         <v>1322</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
       <c r="H26" t="s">
         <v>1340</v>
       </c>
@@ -7127,15 +7114,15 @@
       </c>
       <c r="C27" s="41">
         <f>L6</f>
-        <v>48000</v>
+        <v>16000</v>
       </c>
       <c r="D27" s="41">
         <f>L7</f>
-        <v>96000</v>
+        <v>32000</v>
       </c>
       <c r="E27" s="41">
         <f>O8</f>
-        <v>3840000</v>
+        <v>1280000</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -7173,15 +7160,15 @@
       </c>
       <c r="C28" s="33">
         <f>$B28/$C$27</f>
-        <v>44739.242645833336</v>
+        <v>134217.72793749999</v>
       </c>
       <c r="D28" s="35">
         <f>$B28/$D$27</f>
-        <v>22369.621322916668</v>
+        <v>67108.863968749996</v>
       </c>
       <c r="E28" s="33">
         <f>$B28/$E$27</f>
-        <v>559.24053307291672</v>
+        <v>1677.72159921875</v>
       </c>
       <c r="H28">
         <f>H27+1</f>
@@ -7225,15 +7212,15 @@
       </c>
       <c r="C29" s="33">
         <f t="shared" ref="C29:C31" si="3">$B29/$C$27</f>
-        <v>89478.485312499994</v>
+        <v>268435.4559375</v>
       </c>
       <c r="D29" s="35">
         <f>$B29/$D$27</f>
-        <v>44739.242656249997</v>
+        <v>134217.72796875</v>
       </c>
       <c r="E29" s="33">
         <f>$B29/$E$27</f>
-        <v>1118.48106640625</v>
+        <v>3355.4431992187501</v>
       </c>
       <c r="H29">
         <f t="shared" ref="H29:H44" si="4">H28+1</f>
@@ -7277,15 +7264,15 @@
       </c>
       <c r="C30" s="33">
         <f t="shared" si="3"/>
-        <v>192153584101141.03</v>
+        <v>576460752303423.13</v>
       </c>
       <c r="D30" s="35">
         <f>$B30/$D$27</f>
-        <v>96076792050570.516</v>
+        <v>288230376151711.56</v>
       </c>
       <c r="E30" s="33">
         <f>$B30/$E$27</f>
-        <v>2401919801264.2627</v>
+        <v>7205759403792.7891</v>
       </c>
       <c r="H30">
         <f t="shared" si="4"/>
@@ -7329,15 +7316,15 @@
       </c>
       <c r="C31" s="33">
         <f t="shared" si="3"/>
-        <v>384307168202281.25</v>
+        <v>1152921504606843.8</v>
       </c>
       <c r="D31" s="33">
         <f>$B31/$D$27</f>
-        <v>192153584101140.63</v>
+        <v>576460752303421.88</v>
       </c>
       <c r="E31" s="33">
         <f>$B31/$E$27</f>
-        <v>4803839602528.5156</v>
+        <v>14411518807585.547</v>
       </c>
       <c r="H31">
         <f t="shared" si="4"/>
@@ -7848,6 +7835,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="C26:E26"/>
@@ -7856,11 +7848,6 @@
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I18:L18"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7960,18 +7947,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>889</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="3"/>
       <c r="L9" t="s">
         <v>890</v>
@@ -8093,10 +8080,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="F19" s="3" t="s">
         <v>890</v>
       </c>
@@ -8239,18 +8226,18 @@
       <c r="I29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="45" t="s">
         <v>889</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44" t="s">
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -8333,10 +8320,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
@@ -8422,10 +8409,10 @@
       <c r="A47" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="45" t="s">
         <v>965</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
@@ -8917,7 +8904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <dimension ref="A2:AH236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A113" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -8947,12 +8934,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="46" t="s">
         <v>1215</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="62"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -23455,7 +23442,7 @@
       <c r="L236" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AH184">
+  <sortState ref="A5:AH184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
@@ -23488,11 +23475,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" t="s">
         <v>92</v>
       </c>
@@ -23505,28 +23492,28 @@
       <c r="I3" t="s">
         <v>1209</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
       <c r="Z3" t="s">
         <v>98</v>
       </c>
@@ -23618,7 +23605,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>85</v>
       </c>
     </row>
@@ -23626,13 +23613,13 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="45" t="s">
         <v>756</v>
       </c>
     </row>
@@ -23640,13 +23627,13 @@
       <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>757</v>
       </c>
     </row>
@@ -23654,13 +23641,13 @@
       <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>758</v>
       </c>
     </row>
@@ -23668,13 +23655,13 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="48" t="s">
         <v>759</v>
       </c>
     </row>
@@ -23682,7 +23669,7 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P15" t="s">
@@ -23948,7 +23935,7 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="47" t="s">
         <v>745</v>
       </c>
       <c r="E19" t="s">
@@ -24025,7 +24012,7 @@
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="47"/>
       <c r="E20" t="s">
         <v>126</v>
       </c>
@@ -24100,7 +24087,7 @@
       <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" t="s">
         <v>126</v>
       </c>
@@ -24175,7 +24162,7 @@
       <c r="A22" s="3">
         <v>7</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" t="s">
         <v>126</v>
       </c>
@@ -24250,7 +24237,7 @@
       <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" t="s">
         <v>126</v>
       </c>
@@ -24325,7 +24312,7 @@
       <c r="A24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" t="s">
         <v>126</v>
       </c>
@@ -24400,7 +24387,7 @@
       <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" t="s">
         <v>126</v>
       </c>
@@ -24475,7 +24462,7 @@
       <c r="A26" s="3">
         <v>11</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" t="s">
         <v>126</v>
       </c>
@@ -24550,7 +24537,7 @@
       <c r="A27" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" t="s">
         <v>126</v>
       </c>
@@ -24625,7 +24612,7 @@
       <c r="A28" s="3">
         <v>13</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="47"/>
       <c r="E28" t="s">
         <v>126</v>
       </c>
@@ -25082,7 +25069,7 @@
       <c r="A34" s="3">
         <v>19</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="47" t="s">
         <v>747</v>
       </c>
       <c r="E34" t="s">
@@ -25159,7 +25146,7 @@
       <c r="A35" s="3">
         <v>20</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" t="s">
         <v>207</v>
       </c>
@@ -25234,7 +25221,7 @@
       <c r="A36" s="3">
         <v>21</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="47"/>
       <c r="E36" t="s">
         <v>208</v>
       </c>
@@ -25309,7 +25296,7 @@
       <c r="A37" s="3">
         <v>22</v>
       </c>
-      <c r="D37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="E37" t="s">
         <v>209</v>
       </c>
@@ -25384,7 +25371,7 @@
       <c r="A38" s="3">
         <v>23</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="47"/>
       <c r="E38" t="s">
         <v>210</v>
       </c>
@@ -25459,7 +25446,7 @@
       <c r="A39" s="3">
         <v>24</v>
       </c>
-      <c r="D39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="E39" t="s">
         <v>215</v>
       </c>
@@ -25534,7 +25521,7 @@
       <c r="A40" s="3">
         <v>25</v>
       </c>
-      <c r="D40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -25609,7 +25596,7 @@
       <c r="A41" s="3">
         <v>26</v>
       </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="47"/>
       <c r="E41" t="s">
         <v>222</v>
       </c>
@@ -25684,7 +25671,7 @@
       <c r="A42" s="3">
         <v>27</v>
       </c>
-      <c r="D42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="E42" t="s">
         <v>223</v>
       </c>
@@ -25759,7 +25746,7 @@
       <c r="A43" s="3">
         <v>28</v>
       </c>
-      <c r="D43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="E43" t="s">
         <v>224</v>
       </c>
@@ -25834,7 +25821,7 @@
       <c r="A44" s="3">
         <v>29</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="47"/>
       <c r="E44" t="s">
         <v>225</v>
       </c>
@@ -25909,7 +25896,7 @@
       <c r="A45" s="3">
         <v>30</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="47"/>
       <c r="E45" t="s">
         <v>226</v>
       </c>
@@ -25984,7 +25971,7 @@
       <c r="A46" s="3">
         <v>31</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="47" t="s">
         <v>748</v>
       </c>
       <c r="E46" t="s">
@@ -26061,7 +26048,7 @@
       <c r="A47" s="3">
         <v>32</v>
       </c>
-      <c r="D47" s="46"/>
+      <c r="D47" s="47"/>
       <c r="E47" t="s">
         <v>126</v>
       </c>
@@ -26136,7 +26123,7 @@
       <c r="A48" s="3">
         <v>33</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="47" t="s">
         <v>751</v>
       </c>
       <c r="E48" t="s">
@@ -26213,7 +26200,7 @@
       <c r="A49" s="3">
         <v>34</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="47"/>
       <c r="E49" t="s">
         <v>228</v>
       </c>
@@ -26288,7 +26275,7 @@
       <c r="A50" s="3">
         <v>35</v>
       </c>
-      <c r="D50" s="46"/>
+      <c r="D50" s="47"/>
       <c r="E50" t="s">
         <v>209</v>
       </c>
@@ -27106,7 +27093,7 @@
       <c r="A61" s="3">
         <v>46</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="47" t="s">
         <v>752</v>
       </c>
       <c r="F61" t="s">
@@ -27180,7 +27167,7 @@
       <c r="A62" s="3">
         <v>47</v>
       </c>
-      <c r="D62" s="46"/>
+      <c r="D62" s="47"/>
       <c r="F62" t="s">
         <v>126</v>
       </c>
@@ -28140,7 +28127,7 @@
       <c r="A75" s="3">
         <v>60</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="47" t="s">
         <v>751</v>
       </c>
       <c r="E75" t="s">
@@ -28217,7 +28204,7 @@
       <c r="A76" s="3">
         <v>61</v>
       </c>
-      <c r="D76" s="46"/>
+      <c r="D76" s="47"/>
       <c r="E76" t="s">
         <v>386</v>
       </c>
@@ -28292,7 +28279,7 @@
       <c r="A77" s="3">
         <v>62</v>
       </c>
-      <c r="D77" s="46"/>
+      <c r="D77" s="47"/>
       <c r="E77" t="s">
         <v>387</v>
       </c>
@@ -28367,7 +28354,7 @@
       <c r="A78" s="3">
         <v>63</v>
       </c>
-      <c r="D78" s="46"/>
+      <c r="D78" s="47"/>
       <c r="E78" t="s">
         <v>209</v>
       </c>
@@ -28442,7 +28429,7 @@
       <c r="A79" s="3">
         <v>64</v>
       </c>
-      <c r="D79" s="46"/>
+      <c r="D79" s="47"/>
       <c r="E79" t="s">
         <v>388</v>
       </c>
@@ -28517,7 +28504,7 @@
       <c r="A80" s="3">
         <v>65</v>
       </c>
-      <c r="D80" s="46"/>
+      <c r="D80" s="47"/>
       <c r="E80" t="s">
         <v>388</v>
       </c>
@@ -28592,7 +28579,7 @@
       <c r="A81" s="3">
         <v>66</v>
       </c>
-      <c r="D81" s="46"/>
+      <c r="D81" s="47"/>
       <c r="E81" t="s">
         <v>389</v>
       </c>
@@ -28667,7 +28654,7 @@
       <c r="A82" s="3">
         <v>67</v>
       </c>
-      <c r="D82" s="46"/>
+      <c r="D82" s="47"/>
       <c r="E82" t="s">
         <v>390</v>
       </c>
@@ -28739,7 +28726,7 @@
       <c r="A83" s="3">
         <v>68</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D83" s="47" t="s">
         <v>754</v>
       </c>
       <c r="E83" t="s">
@@ -28816,7 +28803,7 @@
       <c r="A84" s="3">
         <v>69</v>
       </c>
-      <c r="D84" s="46"/>
+      <c r="D84" s="47"/>
       <c r="E84" t="s">
         <v>126</v>
       </c>
@@ -28891,7 +28878,7 @@
       <c r="A85" s="3">
         <v>70</v>
       </c>
-      <c r="D85" s="46"/>
+      <c r="D85" s="47"/>
       <c r="E85" t="s">
         <v>126</v>
       </c>
@@ -28966,7 +28953,7 @@
       <c r="A86" s="3">
         <v>71</v>
       </c>
-      <c r="D86" s="46"/>
+      <c r="D86" s="47"/>
       <c r="E86" t="s">
         <v>126</v>
       </c>
@@ -29041,7 +29028,7 @@
       <c r="A87" s="3">
         <v>72</v>
       </c>
-      <c r="D87" s="46"/>
+      <c r="D87" s="47"/>
       <c r="E87" t="s">
         <v>126</v>
       </c>
@@ -29862,7 +29849,7 @@
       <c r="A98" s="3">
         <v>83</v>
       </c>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="47" t="s">
         <v>766</v>
       </c>
       <c r="E98" t="s">
@@ -29939,7 +29926,7 @@
       <c r="A99" s="3">
         <v>84</v>
       </c>
-      <c r="D99" s="46"/>
+      <c r="D99" s="47"/>
       <c r="E99" t="s">
         <v>386</v>
       </c>
@@ -30239,7 +30226,7 @@
       <c r="C103" s="3">
         <v>7</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D103" s="47" t="s">
         <v>765</v>
       </c>
       <c r="E103" t="s">
@@ -30319,7 +30306,7 @@
       <c r="C104" s="3">
         <v>5</v>
       </c>
-      <c r="D104" s="46"/>
+      <c r="D104" s="47"/>
       <c r="E104" t="s">
         <v>456</v>
       </c>
@@ -30397,7 +30384,7 @@
       <c r="C105" s="3">
         <v>3</v>
       </c>
-      <c r="D105" s="46"/>
+      <c r="D105" s="47"/>
       <c r="E105" t="s">
         <v>460</v>
       </c>
@@ -30475,7 +30462,7 @@
       <c r="C106" s="3">
         <v>1</v>
       </c>
-      <c r="D106" s="46"/>
+      <c r="D106" s="47"/>
       <c r="E106" t="s">
         <v>70</v>
       </c>
@@ -30908,7 +30895,7 @@
       <c r="A112" s="3">
         <v>97</v>
       </c>
-      <c r="D112" s="46" t="s">
+      <c r="D112" s="47" t="s">
         <v>767</v>
       </c>
       <c r="E112" t="s">
@@ -30982,7 +30969,7 @@
       <c r="A113" s="3">
         <v>98</v>
       </c>
-      <c r="D113" s="46"/>
+      <c r="D113" s="47"/>
       <c r="E113" t="s">
         <v>209</v>
       </c>
@@ -31865,7 +31852,7 @@
       <c r="A125" s="3">
         <v>110</v>
       </c>
-      <c r="D125" s="46" t="s">
+      <c r="D125" s="47" t="s">
         <v>767</v>
       </c>
       <c r="E125" t="s">
@@ -31942,7 +31929,7 @@
       <c r="A126" s="3">
         <v>111</v>
       </c>
-      <c r="D126" s="46"/>
+      <c r="D126" s="47"/>
       <c r="E126" t="s">
         <v>209</v>
       </c>
@@ -32017,7 +32004,7 @@
       <c r="A127" s="3">
         <v>112</v>
       </c>
-      <c r="D127" s="46"/>
+      <c r="D127" s="47"/>
       <c r="E127" t="s">
         <v>526</v>
       </c>
@@ -32808,7 +32795,7 @@
       <c r="A138" s="3">
         <v>123</v>
       </c>
-      <c r="D138" s="46" t="s">
+      <c r="D138" s="47" t="s">
         <v>767</v>
       </c>
       <c r="E138" t="s">
@@ -32885,7 +32872,7 @@
       <c r="A139" s="3">
         <v>124</v>
       </c>
-      <c r="D139" s="46"/>
+      <c r="D139" s="47"/>
       <c r="E139" t="s">
         <v>209</v>
       </c>
@@ -34671,7 +34658,7 @@
       <c r="A163" s="3">
         <v>148</v>
       </c>
-      <c r="D163" s="46" t="s">
+      <c r="D163" s="47" t="s">
         <v>767</v>
       </c>
       <c r="E163" t="s">
@@ -34748,7 +34735,7 @@
       <c r="A164" s="3">
         <v>149</v>
       </c>
-      <c r="D164" s="46"/>
+      <c r="D164" s="47"/>
       <c r="E164" t="s">
         <v>221</v>
       </c>
@@ -34823,7 +34810,7 @@
       <c r="A165" s="3">
         <v>150</v>
       </c>
-      <c r="D165" s="46"/>
+      <c r="D165" s="47"/>
       <c r="E165" t="s">
         <v>209</v>
       </c>
@@ -35046,7 +35033,7 @@
       <c r="A168" s="3">
         <v>153</v>
       </c>
-      <c r="D168" s="46" t="s">
+      <c r="D168" s="47" t="s">
         <v>767</v>
       </c>
       <c r="E168" t="s">
@@ -35123,7 +35110,7 @@
       <c r="A169" s="3">
         <v>154</v>
       </c>
-      <c r="D169" s="46"/>
+      <c r="D169" s="47"/>
       <c r="E169" t="s">
         <v>689</v>
       </c>
@@ -35198,7 +35185,7 @@
       <c r="A170" s="3">
         <v>155</v>
       </c>
-      <c r="D170" s="46"/>
+      <c r="D170" s="47"/>
       <c r="E170" t="s">
         <v>690</v>
       </c>
@@ -35273,7 +35260,7 @@
       <c r="A171" s="3">
         <v>156</v>
       </c>
-      <c r="D171" s="46"/>
+      <c r="D171" s="47"/>
       <c r="E171" t="s">
         <v>691</v>
       </c>
@@ -35348,7 +35335,7 @@
       <c r="A172" s="3">
         <v>157</v>
       </c>
-      <c r="D172" s="46"/>
+      <c r="D172" s="47"/>
       <c r="E172" t="s">
         <v>692</v>
       </c>
@@ -35423,7 +35410,7 @@
       <c r="A173" s="3">
         <v>158</v>
       </c>
-      <c r="D173" s="46"/>
+      <c r="D173" s="47"/>
       <c r="E173" t="s">
         <v>693</v>
       </c>
@@ -36315,7 +36302,7 @@
       <c r="A185" s="3">
         <v>170</v>
       </c>
-      <c r="D185" s="46" t="s">
+      <c r="D185" s="47" t="s">
         <v>767</v>
       </c>
       <c r="E185" t="s">
@@ -36392,7 +36379,7 @@
       <c r="A186" s="3">
         <v>171</v>
       </c>
-      <c r="D186" s="46"/>
+      <c r="D186" s="47"/>
       <c r="E186" t="s">
         <v>221</v>
       </c>
@@ -36843,6 +36830,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:K3"/>
@@ -36859,14 +36854,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36886,14 +36873,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -37152,19 +37139,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>1155</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">

--- a/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4F2ED-D748-49EC-BB9D-1B90CB1499AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF03F6F-F63D-45F1-819A-EFADC4F5CC02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="1703" windowWidth="28995" windowHeight="15795" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8152" uniqueCount="1391">
   <si>
     <t>A</t>
   </si>
@@ -4166,6 +4166,51 @@
   </si>
   <si>
     <t>WF</t>
+  </si>
+  <si>
+    <t>Revolutions to Pulse Count Conversion</t>
+  </si>
+  <si>
+    <t>Revolutions</t>
+  </si>
+  <si>
+    <t>Gear Reduction</t>
+  </si>
+  <si>
+    <t>Red Ratio</t>
+  </si>
+  <si>
+    <t>Rev/rev</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>motor Rev</t>
+  </si>
+  <si>
+    <t>Pulse/Rev</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>mm/Layer</t>
+  </si>
+  <si>
+    <t>Layers for Total Build Height</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -4379,7 +4424,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4485,6 +4530,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4509,15 +4557,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4537,6 +4576,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5010,23 +5064,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="N1" s="44" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="N1" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -6438,10 +6492,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E31A14-73C6-4329-8F42-512A0B93AC1A}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6455,59 +6509,67 @@
     <col min="12" max="12" width="11.265625" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="17" width="13.6640625" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" customWidth="1"/>
     <col min="21" max="21" width="12.59765625" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C1" s="30"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="59"/>
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="57"/>
+      <c r="B3" s="53" t="s">
         <v>1299</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="I3" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="60"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="I4" s="45" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4" s="58"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="I4" s="46" t="s">
         <v>1311</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46" t="s">
         <v>1312</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46" t="s">
         <v>1318</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
       <c r="R4" t="s">
         <v>1316</v>
       </c>
       <c r="S4" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="60"/>
+      <c r="X4" s="54" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="58"/>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
         <v>1304</v>
@@ -6554,9 +6616,18 @@
       <c r="U5" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="60"/>
+      <c r="X5" s="44" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Z5" s="44" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="58"/>
       <c r="B6" s="38" t="s">
         <v>1307</v>
       </c>
@@ -6615,9 +6686,18 @@
         <f>T6/P6</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="60"/>
+      <c r="X6" s="44" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Y6" s="44" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Z6" s="44" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="58"/>
       <c r="B7" s="39" t="s">
         <v>1297</v>
       </c>
@@ -6679,9 +6759,19 @@
         <f t="shared" ref="U7:U8" si="1">T7/P7</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="60"/>
+      <c r="X7" s="44">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="44">
+        <v>400</v>
+      </c>
+      <c r="Z7" s="44">
+        <f>Y7/X7</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="58"/>
       <c r="B8" s="38" t="s">
         <v>1289</v>
       </c>
@@ -6741,8 +6831,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="58"/>
       <c r="B9" s="38" t="s">
         <v>1296</v>
       </c>
@@ -6762,8 +6852,8 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="59"/>
       <c r="B10" s="38" t="s">
         <v>1290</v>
       </c>
@@ -6792,7 +6882,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
         <v>941</v>
       </c>
@@ -6818,7 +6908,7 @@
         <v>537133056</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
         <v>1292</v>
       </c>
@@ -6851,7 +6941,7 @@
         <v>20480</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
         <v>1293</v>
       </c>
@@ -6884,7 +6974,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>1294</v>
       </c>
@@ -6914,7 +7004,7 @@
         <v>536739840</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
         <v>1295</v>
       </c>
@@ -6947,7 +7037,7 @@
         <v>131072</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O16" t="s">
         <v>1358</v>
       </c>
@@ -6958,7 +7048,7 @@
         <v>536870912</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O17" t="s">
         <v>1359</v>
       </c>
@@ -6973,13 +7063,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I18" s="44" t="s">
-        <v>1327</v>
-      </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O18" s="3" t="s">
         <v>1348</v>
       </c>
@@ -6994,92 +7078,59 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B19" s="60" t="s">
         <v>1302</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="I19" s="4" t="s">
-        <v>1328</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>1332</v>
-      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
       <c r="R19">
         <f>SUM(R15:R18)</f>
         <v>655528</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B20" s="60" t="s">
         <v>1303</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="I20" s="4" t="s">
-        <v>1326</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>1331</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I21" s="4">
-        <v>310</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1600</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
-        <f>J21/K21*I21</f>
-        <v>99200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="52" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+    </row>
+    <row r="24" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="53" t="s">
         <v>1321</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-    </row>
-    <row r="25" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="54"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="61"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="62"/>
       <c r="I25" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="52" t="s">
+      <c r="S25" s="45" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+    </row>
+    <row r="26" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="53" t="s">
         <v>1322</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
       <c r="H26" t="s">
         <v>1340</v>
       </c>
@@ -7104,8 +7155,20 @@
       <c r="P26" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="S26" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
         <v>941</v>
       </c>
@@ -7150,8 +7213,20 @@
         <f>N27+M27*O27</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="S27" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="36" t="s">
         <v>1292</v>
       </c>
@@ -7202,8 +7277,21 @@
         <f t="shared" ref="P28:P45" si="2">N28+M28*O28</f>
         <v>2700</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="S28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T28" s="4">
+        <v>1600</v>
+      </c>
+      <c r="U28" s="4">
+        <v>5</v>
+      </c>
+      <c r="V28" s="65">
+        <f>T28/U28*S28</f>
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
         <v>1293</v>
       </c>
@@ -7255,7 +7343,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="36" t="s">
         <v>1294</v>
       </c>
@@ -7307,7 +7395,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="36" t="s">
         <v>1295</v>
       </c>
@@ -7359,7 +7447,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="H32">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -7392,8 +7480,15 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-    </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="S32" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+    </row>
+    <row r="33" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H33">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -7426,8 +7521,23 @@
         <f t="shared" si="2"/>
         <v>3700</v>
       </c>
-    </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="S33" s="44" t="s">
+        <v>1377</v>
+      </c>
+      <c r="T33" s="44" t="s">
+        <v>1379</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>1378</v>
+      </c>
+      <c r="V33" s="44" t="s">
+        <v>1383</v>
+      </c>
+      <c r="W33" s="64" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="34" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H34">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -7460,8 +7570,23 @@
         <f t="shared" si="2"/>
         <v>3900</v>
       </c>
-    </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="S34" s="44" t="s">
+        <v>1381</v>
+      </c>
+      <c r="T34" s="44" t="s">
+        <v>1380</v>
+      </c>
+      <c r="U34" s="44" t="s">
+        <v>1382</v>
+      </c>
+      <c r="V34" s="44" t="s">
+        <v>1333</v>
+      </c>
+      <c r="W34" s="64" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="35" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H35">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -7494,8 +7619,25 @@
         <f t="shared" si="2"/>
         <v>4100</v>
       </c>
-    </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.35">
+      <c r="S35" s="44">
+        <v>25</v>
+      </c>
+      <c r="T35" s="44">
+        <v>20</v>
+      </c>
+      <c r="U35" s="44">
+        <f>S35*T35</f>
+        <v>500</v>
+      </c>
+      <c r="V35" s="44">
+        <v>1600</v>
+      </c>
+      <c r="W35" s="32">
+        <f>U35*V35</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="36" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H36">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -7529,7 +7671,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H37">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7563,7 +7705,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H38">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7597,7 +7739,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H39">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7631,7 +7773,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H40">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7665,7 +7807,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H41">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -7699,7 +7841,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H42">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -7733,7 +7875,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H43">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -7767,7 +7909,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H44">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -7801,7 +7943,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H45">
         <v>99</v>
       </c>
@@ -7834,12 +7976,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
+  <mergeCells count="15">
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="X4:Z4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="C26:E26"/>
@@ -7847,7 +7986,12 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7947,18 +8091,18 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>889</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46" t="s">
         <v>888</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="3"/>
       <c r="L9" t="s">
         <v>890</v>
@@ -8080,10 +8224,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>899</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="F19" s="3" t="s">
         <v>890</v>
       </c>
@@ -8226,18 +8370,18 @@
       <c r="I29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>889</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46" t="s">
         <v>888</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -8320,10 +8464,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="46" t="s">
         <v>899</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
@@ -8409,10 +8553,10 @@
       <c r="A47" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="46" t="s">
         <v>965</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
@@ -8934,11 +9078,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>1215</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -23475,11 +23619,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" t="s">
         <v>92</v>
       </c>
@@ -23492,28 +23636,28 @@
       <c r="I3" t="s">
         <v>1209</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="s">
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
       <c r="Z3" t="s">
         <v>98</v>
       </c>
@@ -23605,7 +23749,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>85</v>
       </c>
     </row>
@@ -23613,13 +23757,13 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="46" t="s">
         <v>756</v>
       </c>
     </row>
@@ -23627,13 +23771,13 @@
       <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>757</v>
       </c>
     </row>
@@ -23641,13 +23785,13 @@
       <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="46" t="s">
         <v>758</v>
       </c>
     </row>
@@ -23655,13 +23799,13 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="49" t="s">
         <v>759</v>
       </c>
     </row>
@@ -23669,7 +23813,7 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="P15" t="s">
@@ -23935,7 +24079,7 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="48" t="s">
         <v>745</v>
       </c>
       <c r="E19" t="s">
@@ -24012,7 +24156,7 @@
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" t="s">
         <v>126</v>
       </c>
@@ -24087,7 +24231,7 @@
       <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" t="s">
         <v>126</v>
       </c>
@@ -24162,7 +24306,7 @@
       <c r="A22" s="3">
         <v>7</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" t="s">
         <v>126</v>
       </c>
@@ -24237,7 +24381,7 @@
       <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" t="s">
         <v>126</v>
       </c>
@@ -24312,7 +24456,7 @@
       <c r="A24" s="3">
         <v>9</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="48"/>
       <c r="E24" t="s">
         <v>126</v>
       </c>
@@ -24387,7 +24531,7 @@
       <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="48"/>
       <c r="E25" t="s">
         <v>126</v>
       </c>
@@ -24462,7 +24606,7 @@
       <c r="A26" s="3">
         <v>11</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="48"/>
       <c r="E26" t="s">
         <v>126</v>
       </c>
@@ -24537,7 +24681,7 @@
       <c r="A27" s="3">
         <v>12</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="48"/>
       <c r="E27" t="s">
         <v>126</v>
       </c>
@@ -24612,7 +24756,7 @@
       <c r="A28" s="3">
         <v>13</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="48"/>
       <c r="E28" t="s">
         <v>126</v>
       </c>
@@ -25069,7 +25213,7 @@
       <c r="A34" s="3">
         <v>19</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="48" t="s">
         <v>747</v>
       </c>
       <c r="E34" t="s">
@@ -25146,7 +25290,7 @@
       <c r="A35" s="3">
         <v>20</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="48"/>
       <c r="E35" t="s">
         <v>207</v>
       </c>
@@ -25221,7 +25365,7 @@
       <c r="A36" s="3">
         <v>21</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="48"/>
       <c r="E36" t="s">
         <v>208</v>
       </c>
@@ -25296,7 +25440,7 @@
       <c r="A37" s="3">
         <v>22</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="48"/>
       <c r="E37" t="s">
         <v>209</v>
       </c>
@@ -25371,7 +25515,7 @@
       <c r="A38" s="3">
         <v>23</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="48"/>
       <c r="E38" t="s">
         <v>210</v>
       </c>
@@ -25446,7 +25590,7 @@
       <c r="A39" s="3">
         <v>24</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="48"/>
       <c r="E39" t="s">
         <v>215</v>
       </c>
@@ -25521,7 +25665,7 @@
       <c r="A40" s="3">
         <v>25</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="48"/>
       <c r="E40" t="s">
         <v>221</v>
       </c>
@@ -25596,7 +25740,7 @@
       <c r="A41" s="3">
         <v>26</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="48"/>
       <c r="E41" t="s">
         <v>222</v>
       </c>
@@ -25671,7 +25815,7 @@
       <c r="A42" s="3">
         <v>27</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="48"/>
       <c r="E42" t="s">
         <v>223</v>
       </c>
@@ -25746,7 +25890,7 @@
       <c r="A43" s="3">
         <v>28</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="48"/>
       <c r="E43" t="s">
         <v>224</v>
       </c>
@@ -25821,7 +25965,7 @@
       <c r="A44" s="3">
         <v>29</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" t="s">
         <v>225</v>
       </c>
@@ -25896,7 +26040,7 @@
       <c r="A45" s="3">
         <v>30</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="48"/>
       <c r="E45" t="s">
         <v>226</v>
       </c>
@@ -25971,7 +26115,7 @@
       <c r="A46" s="3">
         <v>31</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="48" t="s">
         <v>748</v>
       </c>
       <c r="E46" t="s">
@@ -26048,7 +26192,7 @@
       <c r="A47" s="3">
         <v>32</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="48"/>
       <c r="E47" t="s">
         <v>126</v>
       </c>
@@ -26123,7 +26267,7 @@
       <c r="A48" s="3">
         <v>33</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="48" t="s">
         <v>751</v>
       </c>
       <c r="E48" t="s">
@@ -26200,7 +26344,7 @@
       <c r="A49" s="3">
         <v>34</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="48"/>
       <c r="E49" t="s">
         <v>228</v>
       </c>
@@ -26275,7 +26419,7 @@
       <c r="A50" s="3">
         <v>35</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="D50" s="48"/>
       <c r="E50" t="s">
         <v>209</v>
       </c>
@@ -27093,7 +27237,7 @@
       <c r="A61" s="3">
         <v>46</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="48" t="s">
         <v>752</v>
       </c>
       <c r="F61" t="s">
@@ -27167,7 +27311,7 @@
       <c r="A62" s="3">
         <v>47</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="48"/>
       <c r="F62" t="s">
         <v>126</v>
       </c>
@@ -28127,7 +28271,7 @@
       <c r="A75" s="3">
         <v>60</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="48" t="s">
         <v>751</v>
       </c>
       <c r="E75" t="s">
@@ -28204,7 +28348,7 @@
       <c r="A76" s="3">
         <v>61</v>
       </c>
-      <c r="D76" s="47"/>
+      <c r="D76" s="48"/>
       <c r="E76" t="s">
         <v>386</v>
       </c>
@@ -28279,7 +28423,7 @@
       <c r="A77" s="3">
         <v>62</v>
       </c>
-      <c r="D77" s="47"/>
+      <c r="D77" s="48"/>
       <c r="E77" t="s">
         <v>387</v>
       </c>
@@ -28354,7 +28498,7 @@
       <c r="A78" s="3">
         <v>63</v>
       </c>
-      <c r="D78" s="47"/>
+      <c r="D78" s="48"/>
       <c r="E78" t="s">
         <v>209</v>
       </c>
@@ -28429,7 +28573,7 @@
       <c r="A79" s="3">
         <v>64</v>
       </c>
-      <c r="D79" s="47"/>
+      <c r="D79" s="48"/>
       <c r="E79" t="s">
         <v>388</v>
       </c>
@@ -28504,7 +28648,7 @@
       <c r="A80" s="3">
         <v>65</v>
       </c>
-      <c r="D80" s="47"/>
+      <c r="D80" s="48"/>
       <c r="E80" t="s">
         <v>388</v>
       </c>
@@ -28579,7 +28723,7 @@
       <c r="A81" s="3">
         <v>66</v>
       </c>
-      <c r="D81" s="47"/>
+      <c r="D81" s="48"/>
       <c r="E81" t="s">
         <v>389</v>
       </c>
@@ -28654,7 +28798,7 @@
       <c r="A82" s="3">
         <v>67</v>
       </c>
-      <c r="D82" s="47"/>
+      <c r="D82" s="48"/>
       <c r="E82" t="s">
         <v>390</v>
       </c>
@@ -28726,7 +28870,7 @@
       <c r="A83" s="3">
         <v>68</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D83" s="48" t="s">
         <v>754</v>
       </c>
       <c r="E83" t="s">
@@ -28803,7 +28947,7 @@
       <c r="A84" s="3">
         <v>69</v>
       </c>
-      <c r="D84" s="47"/>
+      <c r="D84" s="48"/>
       <c r="E84" t="s">
         <v>126</v>
       </c>
@@ -28878,7 +29022,7 @@
       <c r="A85" s="3">
         <v>70</v>
       </c>
-      <c r="D85" s="47"/>
+      <c r="D85" s="48"/>
       <c r="E85" t="s">
         <v>126</v>
       </c>
@@ -28953,7 +29097,7 @@
       <c r="A86" s="3">
         <v>71</v>
       </c>
-      <c r="D86" s="47"/>
+      <c r="D86" s="48"/>
       <c r="E86" t="s">
         <v>126</v>
       </c>
@@ -29028,7 +29172,7 @@
       <c r="A87" s="3">
         <v>72</v>
       </c>
-      <c r="D87" s="47"/>
+      <c r="D87" s="48"/>
       <c r="E87" t="s">
         <v>126</v>
       </c>
@@ -29849,7 +29993,7 @@
       <c r="A98" s="3">
         <v>83</v>
       </c>
-      <c r="D98" s="47" t="s">
+      <c r="D98" s="48" t="s">
         <v>766</v>
       </c>
       <c r="E98" t="s">
@@ -29926,7 +30070,7 @@
       <c r="A99" s="3">
         <v>84</v>
       </c>
-      <c r="D99" s="47"/>
+      <c r="D99" s="48"/>
       <c r="E99" t="s">
         <v>386</v>
       </c>
@@ -30226,7 +30370,7 @@
       <c r="C103" s="3">
         <v>7</v>
       </c>
-      <c r="D103" s="47" t="s">
+      <c r="D103" s="48" t="s">
         <v>765</v>
       </c>
       <c r="E103" t="s">
@@ -30306,7 +30450,7 @@
       <c r="C104" s="3">
         <v>5</v>
       </c>
-      <c r="D104" s="47"/>
+      <c r="D104" s="48"/>
       <c r="E104" t="s">
         <v>456</v>
       </c>
@@ -30384,7 +30528,7 @@
       <c r="C105" s="3">
         <v>3</v>
       </c>
-      <c r="D105" s="47"/>
+      <c r="D105" s="48"/>
       <c r="E105" t="s">
         <v>460</v>
       </c>
@@ -30462,7 +30606,7 @@
       <c r="C106" s="3">
         <v>1</v>
       </c>
-      <c r="D106" s="47"/>
+      <c r="D106" s="48"/>
       <c r="E106" t="s">
         <v>70</v>
       </c>
@@ -30895,7 +31039,7 @@
       <c r="A112" s="3">
         <v>97</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="D112" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E112" t="s">
@@ -30969,7 +31113,7 @@
       <c r="A113" s="3">
         <v>98</v>
       </c>
-      <c r="D113" s="47"/>
+      <c r="D113" s="48"/>
       <c r="E113" t="s">
         <v>209</v>
       </c>
@@ -31852,7 +31996,7 @@
       <c r="A125" s="3">
         <v>110</v>
       </c>
-      <c r="D125" s="47" t="s">
+      <c r="D125" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E125" t="s">
@@ -31929,7 +32073,7 @@
       <c r="A126" s="3">
         <v>111</v>
       </c>
-      <c r="D126" s="47"/>
+      <c r="D126" s="48"/>
       <c r="E126" t="s">
         <v>209</v>
       </c>
@@ -32004,7 +32148,7 @@
       <c r="A127" s="3">
         <v>112</v>
       </c>
-      <c r="D127" s="47"/>
+      <c r="D127" s="48"/>
       <c r="E127" t="s">
         <v>526</v>
       </c>
@@ -32795,7 +32939,7 @@
       <c r="A138" s="3">
         <v>123</v>
       </c>
-      <c r="D138" s="47" t="s">
+      <c r="D138" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E138" t="s">
@@ -32872,7 +33016,7 @@
       <c r="A139" s="3">
         <v>124</v>
       </c>
-      <c r="D139" s="47"/>
+      <c r="D139" s="48"/>
       <c r="E139" t="s">
         <v>209</v>
       </c>
@@ -34658,7 +34802,7 @@
       <c r="A163" s="3">
         <v>148</v>
       </c>
-      <c r="D163" s="47" t="s">
+      <c r="D163" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E163" t="s">
@@ -34735,7 +34879,7 @@
       <c r="A164" s="3">
         <v>149</v>
       </c>
-      <c r="D164" s="47"/>
+      <c r="D164" s="48"/>
       <c r="E164" t="s">
         <v>221</v>
       </c>
@@ -34810,7 +34954,7 @@
       <c r="A165" s="3">
         <v>150</v>
       </c>
-      <c r="D165" s="47"/>
+      <c r="D165" s="48"/>
       <c r="E165" t="s">
         <v>209</v>
       </c>
@@ -35033,7 +35177,7 @@
       <c r="A168" s="3">
         <v>153</v>
       </c>
-      <c r="D168" s="47" t="s">
+      <c r="D168" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E168" t="s">
@@ -35110,7 +35254,7 @@
       <c r="A169" s="3">
         <v>154</v>
       </c>
-      <c r="D169" s="47"/>
+      <c r="D169" s="48"/>
       <c r="E169" t="s">
         <v>689</v>
       </c>
@@ -35185,7 +35329,7 @@
       <c r="A170" s="3">
         <v>155</v>
       </c>
-      <c r="D170" s="47"/>
+      <c r="D170" s="48"/>
       <c r="E170" t="s">
         <v>690</v>
       </c>
@@ -35260,7 +35404,7 @@
       <c r="A171" s="3">
         <v>156</v>
       </c>
-      <c r="D171" s="47"/>
+      <c r="D171" s="48"/>
       <c r="E171" t="s">
         <v>691</v>
       </c>
@@ -35335,7 +35479,7 @@
       <c r="A172" s="3">
         <v>157</v>
       </c>
-      <c r="D172" s="47"/>
+      <c r="D172" s="48"/>
       <c r="E172" t="s">
         <v>692</v>
       </c>
@@ -35410,7 +35554,7 @@
       <c r="A173" s="3">
         <v>158</v>
       </c>
-      <c r="D173" s="47"/>
+      <c r="D173" s="48"/>
       <c r="E173" t="s">
         <v>693</v>
       </c>
@@ -36302,7 +36446,7 @@
       <c r="A185" s="3">
         <v>170</v>
       </c>
-      <c r="D185" s="47" t="s">
+      <c r="D185" s="48" t="s">
         <v>767</v>
       </c>
       <c r="E185" t="s">
@@ -36379,7 +36523,7 @@
       <c r="A186" s="3">
         <v>171</v>
       </c>
-      <c r="D186" s="47"/>
+      <c r="D186" s="48"/>
       <c r="E186" t="s">
         <v>221</v>
       </c>
@@ -36830,14 +36974,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:K3"/>
@@ -36854,6 +36990,14 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36873,14 +37017,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -37139,19 +37283,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>1155</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">

--- a/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF03F6F-F63D-45F1-819A-EFADC4F5CC02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8F691-9149-4171-97F2-C42E2196A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1703" windowWidth="28995" windowHeight="15795" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -26,11 +26,24 @@
     <sheet name="Motor Ticks and Time" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8152" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8146" uniqueCount="1386">
   <si>
     <t>A</t>
   </si>
@@ -4096,33 +4109,12 @@
     <t>Dec</t>
   </si>
   <si>
-    <t>0x20045000</t>
-  </si>
-  <si>
-    <t>0x20050000</t>
-  </si>
-  <si>
-    <t>0x20040000</t>
-  </si>
-  <si>
-    <t>0x1FFE0000</t>
-  </si>
-  <si>
-    <t>0x20000000</t>
-  </si>
-  <si>
-    <t>0x20080000</t>
-  </si>
-  <si>
     <t>BaseRAM USB</t>
   </si>
   <si>
     <t>BaseRAM Moves</t>
   </si>
   <si>
-    <t>0x200000AE</t>
-  </si>
-  <si>
     <t>DRV_0</t>
   </si>
   <si>
@@ -4211,6 +4203,12 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>1FFE0000</t>
+  </si>
+  <si>
+    <t>200000AE</t>
   </si>
 </sst>
 </file>
@@ -4424,7 +4422,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -4524,10 +4522,10 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4585,12 +4583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6203,7 +6195,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="N3:Q33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:Q33">
     <sortCondition ref="N3:N33"/>
   </sortState>
   <mergeCells count="3">
@@ -6495,7 +6487,7 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -6516,6 +6508,7 @@
     <col min="21" max="21" width="12.59765625" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
@@ -6563,7 +6556,7 @@
         <v>1323</v>
       </c>
       <c r="X4" s="54" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="Y4" s="55"/>
       <c r="Z4" s="56"/>
@@ -6616,14 +6609,14 @@
       <c r="U5" t="s">
         <v>1324</v>
       </c>
-      <c r="X5" s="44" t="s">
-        <v>1388</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>1389</v>
-      </c>
-      <c r="Z5" s="44" t="s">
-        <v>1388</v>
+      <c r="X5" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
@@ -6686,14 +6679,14 @@
         <f>T6/P6</f>
         <v>100</v>
       </c>
-      <c r="X6" s="44" t="s">
-        <v>1386</v>
-      </c>
-      <c r="Y6" s="44" t="s">
-        <v>1385</v>
-      </c>
-      <c r="Z6" s="44" t="s">
-        <v>1390</v>
+      <c r="X6" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
@@ -6759,13 +6752,13 @@
         <f t="shared" ref="U7:U8" si="1">T7/P7</f>
         <v>100</v>
       </c>
-      <c r="X7" s="44">
+      <c r="X7" s="4">
         <v>2</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="4">
         <v>400</v>
       </c>
-      <c r="Z7" s="44">
+      <c r="Z7" s="4">
         <f>Y7/X7</f>
         <v>200</v>
       </c>
@@ -6872,10 +6865,10 @@
       <c r="O10" t="s">
         <v>1343</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>1351</v>
       </c>
       <c r="R10" t="s">
@@ -6901,10 +6894,11 @@
       <c r="O11" t="s">
         <v>883</v>
       </c>
-      <c r="P11" t="s">
-        <v>1354</v>
-      </c>
-      <c r="Q11" s="30">
+      <c r="P11" s="3">
+        <v>20040000</v>
+      </c>
+      <c r="Q11" s="44">
+        <f>HEX2DEC(P11)</f>
         <v>537133056</v>
       </c>
     </row>
@@ -6930,16 +6924,18 @@
       <c r="O12" t="s">
         <v>1344</v>
       </c>
-      <c r="P12" t="s">
-        <v>1352</v>
-      </c>
-      <c r="Q12" s="30">
+      <c r="P12" s="3">
+        <v>20045000</v>
+      </c>
+      <c r="Q12" s="44">
+        <f>HEX2DEC(P12)</f>
         <v>537153536</v>
       </c>
       <c r="R12">
         <f>Q12-Q11</f>
         <v>20480</v>
       </c>
+      <c r="X12" s="30"/>
     </row>
     <row r="13" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="36" t="s">
@@ -6963,10 +6959,11 @@
       <c r="O13" t="s">
         <v>1345</v>
       </c>
-      <c r="P13" t="s">
-        <v>1353</v>
-      </c>
-      <c r="Q13" s="30">
+      <c r="P13" s="3">
+        <v>20050000</v>
+      </c>
+      <c r="Q13" s="44">
+        <f t="shared" ref="Q13:Q18" si="2">HEX2DEC(P13)</f>
         <v>537198592</v>
       </c>
       <c r="R13">
@@ -6997,10 +6994,11 @@
       <c r="O14" t="s">
         <v>1349</v>
       </c>
-      <c r="P14" t="s">
-        <v>1355</v>
-      </c>
-      <c r="Q14" s="30">
+      <c r="P14" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="Q14" s="44">
+        <f t="shared" si="2"/>
         <v>536739840</v>
       </c>
     </row>
@@ -7026,10 +7024,11 @@
       <c r="O15" t="s">
         <v>1347</v>
       </c>
-      <c r="P15" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Q15" s="30">
+      <c r="P15" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="Q15" s="44">
+        <f t="shared" si="2"/>
         <v>536870912</v>
       </c>
       <c r="R15">
@@ -7039,38 +7038,41 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="O16" t="s">
-        <v>1358</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1356</v>
-      </c>
-      <c r="Q16" s="30">
+        <v>1352</v>
+      </c>
+      <c r="P16" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="Q16" s="44">
+        <f t="shared" si="2"/>
         <v>536870912</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O17" t="s">
-        <v>1359</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1360</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>536871080</v>
+        <v>1353</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="Q17" s="44">
+        <f t="shared" si="2"/>
+        <v>536871086</v>
       </c>
       <c r="R17" s="31">
         <f>Q17-Q16</f>
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O18" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="Q18" s="30">
+      <c r="P18" s="3">
+        <v>20080000</v>
+      </c>
+      <c r="Q18" s="44">
+        <f t="shared" si="2"/>
         <v>537395200</v>
       </c>
       <c r="R18">
@@ -7087,7 +7089,7 @@
       <c r="E19" s="60"/>
       <c r="R19">
         <f>SUM(R15:R18)</f>
-        <v>655528</v>
+        <v>655534</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
@@ -7097,6 +7099,10 @@
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
+      <c r="Q20" s="31">
+        <f>Q18-Q14</f>
+        <v>655360</v>
+      </c>
     </row>
     <row r="24" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="53" t="s">
@@ -7274,7 +7280,7 @@
         <v>200</v>
       </c>
       <c r="P28">
-        <f t="shared" ref="P28:P45" si="2">N28+M28*O28</f>
+        <f t="shared" ref="P28:P45" si="3">N28+M28*O28</f>
         <v>2700</v>
       </c>
       <c r="S28" s="4">
@@ -7286,7 +7292,7 @@
       <c r="U28" s="4">
         <v>5</v>
       </c>
-      <c r="V28" s="65">
+      <c r="V28" s="43">
         <f>T28/U28*S28</f>
         <v>320000</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>4294967295</v>
       </c>
       <c r="C29" s="33">
-        <f t="shared" ref="C29:C31" si="3">$B29/$C$27</f>
+        <f t="shared" ref="C29:C31" si="4">$B29/$C$27</f>
         <v>268435.4559375</v>
       </c>
       <c r="D29" s="35">
@@ -7311,35 +7317,35 @@
         <v>3355.4431992187501</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H44" si="4">H28+1</f>
+        <f t="shared" ref="H29:H44" si="5">H28+1</f>
         <v>2</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I45" si="5">I28</f>
+        <f t="shared" ref="I29:I45" si="6">I28</f>
         <v>1600</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J45" si="6">J28</f>
+        <f t="shared" ref="J29:J45" si="7">J28</f>
         <v>500</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:K45" si="7">I29+H29*J29</f>
+        <f t="shared" ref="K29:K45" si="8">I29+H29*J29</f>
         <v>2600</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:M44" si="8">M28+1</f>
+        <f t="shared" ref="M29:M44" si="9">M28+1</f>
         <v>2</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:N45" si="9">N28</f>
+        <f t="shared" ref="N29:N45" si="10">N28</f>
         <v>2500</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O45" si="10">O28</f>
+        <f t="shared" ref="O29:O45" si="11">O28</f>
         <v>200</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2900</v>
       </c>
     </row>
@@ -7351,7 +7357,7 @@
         <v>9.2233720368547697E+18</v>
       </c>
       <c r="C30" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>576460752303423.13</v>
       </c>
       <c r="D30" s="35">
@@ -7363,35 +7369,35 @@
         <v>7205759403792.7891</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3100</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3100</v>
       </c>
     </row>
@@ -7403,7 +7409,7 @@
         <v>1.84467440737095E+19</v>
       </c>
       <c r="C31" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1152921504606843.8</v>
       </c>
       <c r="D31" s="33">
@@ -7415,73 +7421,73 @@
         <v>14411518807585.547</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3600</v>
       </c>
       <c r="M31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3300</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4100</v>
       </c>
       <c r="M32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="S32" s="45" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="T32" s="45"/>
       <c r="U32" s="45"/>
@@ -7490,146 +7496,146 @@
     </row>
     <row r="33" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4600</v>
       </c>
       <c r="M33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700</v>
       </c>
-      <c r="S33" s="44" t="s">
+      <c r="S33" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="W33" s="4" t="s">
         <v>1377</v>
-      </c>
-      <c r="T33" s="44" t="s">
-        <v>1379</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>1378</v>
-      </c>
-      <c r="V33" s="44" t="s">
-        <v>1383</v>
-      </c>
-      <c r="W33" s="64" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="34" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5100</v>
       </c>
       <c r="M34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3900</v>
       </c>
-      <c r="S34" s="44" t="s">
-        <v>1381</v>
-      </c>
-      <c r="T34" s="44" t="s">
-        <v>1380</v>
-      </c>
-      <c r="U34" s="44" t="s">
-        <v>1382</v>
-      </c>
-      <c r="V34" s="44" t="s">
+      <c r="S34" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="V34" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="W34" s="64" t="s">
+      <c r="W34" s="4" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="35" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5600</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4100</v>
       </c>
-      <c r="S35" s="44">
+      <c r="S35" s="4">
         <v>25</v>
       </c>
-      <c r="T35" s="44">
+      <c r="T35" s="4">
         <v>20</v>
       </c>
-      <c r="U35" s="44">
+      <c r="U35" s="4">
         <f>S35*T35</f>
         <v>500</v>
       </c>
-      <c r="V35" s="44">
+      <c r="V35" s="4">
         <v>1600</v>
       </c>
       <c r="W35" s="32">
@@ -7639,307 +7645,307 @@
     </row>
     <row r="36" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6100</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4300</v>
       </c>
     </row>
     <row r="37" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6600</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7100</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4700</v>
       </c>
     </row>
     <row r="39" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7600</v>
       </c>
       <c r="M39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="N39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4900</v>
       </c>
     </row>
     <row r="40" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8100</v>
       </c>
       <c r="M40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="N40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5100</v>
       </c>
     </row>
     <row r="41" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8600</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="N41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5300</v>
       </c>
     </row>
     <row r="42" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9100</v>
       </c>
       <c r="M42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5500</v>
       </c>
     </row>
     <row r="43" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9600</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5700</v>
       </c>
     </row>
     <row r="44" spans="8:23" x14ac:dyDescent="0.35">
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10100</v>
       </c>
       <c r="M44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5900</v>
       </c>
     </row>
@@ -7948,30 +7954,30 @@
         <v>99</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="J45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51100</v>
       </c>
       <c r="M45">
         <v>99</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="O45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22300</v>
       </c>
     </row>
@@ -9083,7 +9089,6 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -9110,7 +9115,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>786</v>
@@ -12861,7 +12866,7 @@
         <v>1213</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="J58" s="25" t="s">
         <v>83</v>
@@ -12959,10 +12964,10 @@
         <v>1214</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="K59" s="4">
         <v>1</v>
@@ -13147,10 +13152,10 @@
         <v>1220</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="K61" s="4">
         <v>1</v>
@@ -13245,7 +13250,7 @@
         <v>1224</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J62" s="25" t="s">
         <v>0</v>
@@ -15397,10 +15402,10 @@
         <v>1236</v>
       </c>
       <c r="I89" s="25" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="K89" s="4">
         <v>1</v>
@@ -17601,10 +17606,10 @@
         <v>1274</v>
       </c>
       <c r="I115" s="25" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="J115" s="25" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
@@ -17699,10 +17704,10 @@
         <v>1273</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="J116" s="25" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
@@ -17797,10 +17802,10 @@
         <v>1275</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="J117" s="25" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="K117" s="4">
         <v>1</v>
@@ -18021,10 +18026,10 @@
         <v>1272</v>
       </c>
       <c r="I121" s="25" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="J121" s="25" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="K121" s="4">
         <v>1</v>
@@ -18117,10 +18122,10 @@
         <v>1271</v>
       </c>
       <c r="I122" s="25" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="J122" s="25" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="K122" s="4">
         <v>1</v>
@@ -18213,10 +18218,10 @@
         <v>1270</v>
       </c>
       <c r="I123" s="25" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="J123" s="25" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="K123" s="4">
         <v>1</v>
@@ -18309,10 +18314,10 @@
         <v>1269</v>
       </c>
       <c r="I124" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J124" s="25" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="K124" s="4">
         <v>1</v>
@@ -18405,10 +18410,10 @@
         <v>1268</v>
       </c>
       <c r="I125" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J125" s="25" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
@@ -18501,10 +18506,10 @@
         <v>1267</v>
       </c>
       <c r="I126" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J126" s="25" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
@@ -18597,10 +18602,10 @@
         <v>1266</v>
       </c>
       <c r="I127" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J127" s="25" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="K127" s="4">
         <v>1</v>
@@ -18693,10 +18698,10 @@
         <v>1265</v>
       </c>
       <c r="I128" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J128" s="25" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
@@ -18789,10 +18794,10 @@
         <v>1264</v>
       </c>
       <c r="I129" s="25" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="J129" s="25" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="K129" s="4">
         <v>1</v>
@@ -18887,10 +18892,10 @@
         <v>1263</v>
       </c>
       <c r="I130" s="25" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="J130" s="25" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="K130" s="4">
         <v>1</v>
@@ -19071,10 +19076,10 @@
         <v>1262</v>
       </c>
       <c r="I133" s="25" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="J133" s="25" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="K133" s="4">
         <v>1</v>
@@ -19171,10 +19176,10 @@
         <v>1261</v>
       </c>
       <c r="I134" s="25" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="J134" s="25" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
@@ -19269,10 +19274,10 @@
         <v>1260</v>
       </c>
       <c r="I135" s="25" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="J135" s="25" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
@@ -19367,10 +19372,10 @@
         <v>1259</v>
       </c>
       <c r="I136" s="25" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="J136" s="25" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
@@ -19465,10 +19470,10 @@
         <v>1258</v>
       </c>
       <c r="I137" s="25" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="J137" s="25" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="K137" s="4">
         <v>1</v>
@@ -19563,10 +19568,10 @@
         <v>1256</v>
       </c>
       <c r="I138" s="25" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="J138" s="25" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
@@ -19853,10 +19858,10 @@
         <v>1254</v>
       </c>
       <c r="I141" s="25" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="J141" s="25" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -19951,10 +19956,10 @@
         <v>1253</v>
       </c>
       <c r="I142" s="25" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="J142" s="25" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
@@ -20049,10 +20054,10 @@
         <v>1252</v>
       </c>
       <c r="I143" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J143" s="25" t="s">
         <v>1361</v>
-      </c>
-      <c r="J143" s="25" t="s">
-        <v>1368</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -20147,10 +20152,10 @@
         <v>1251</v>
       </c>
       <c r="I144" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J144" s="25" t="s">
         <v>1361</v>
-      </c>
-      <c r="J144" s="25" t="s">
-        <v>1368</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
@@ -20245,10 +20250,10 @@
         <v>1250</v>
       </c>
       <c r="I145" s="25" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J145" s="25" t="s">
         <v>1361</v>
-      </c>
-      <c r="J145" s="25" t="s">
-        <v>1368</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
@@ -23586,7 +23591,7 @@
       <c r="L236" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A5:AH184">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AH184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>

--- a/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
+++ b/S7G2_Titan/2024_Jan_28_MD_Controller_IO_Map_32_bit_S7G2_Titan_6L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8F691-9149-4171-97F2-C42E2196A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6369A9A7-DDC3-4DE2-AD9C-D1A767180B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S7G2_6L_IO" sheetId="16" r:id="rId1"/>
@@ -32,10 +32,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4552,9 +4552,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4562,6 +4559,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4574,15 +4583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6195,7 +6195,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N3:Q33">
+  <sortState ref="N3:Q33">
     <sortCondition ref="N3:N33"/>
   </sortState>
   <mergeCells count="3">
@@ -6518,23 +6518,23 @@
       <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="57"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="56" t="s">
         <v>1299</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="I3" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="I4" s="46" t="s">
         <v>1311</v>
       </c>
@@ -6555,14 +6555,14 @@
       <c r="S4" t="s">
         <v>1323</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="53" t="s">
         <v>1380</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="56"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="55"/>
     </row>
     <row r="5" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
         <v>1304</v>
@@ -6620,7 +6620,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="38" t="s">
         <v>1307</v>
       </c>
@@ -6690,7 +6690,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="39" t="s">
         <v>1297</v>
       </c>
@@ -6764,7 +6764,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="38" t="s">
         <v>1289</v>
       </c>
@@ -6825,7 +6825,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="38" t="s">
         <v>1296</v>
       </c>
@@ -6846,7 +6846,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="59"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="38" t="s">
         <v>1290</v>
       </c>
@@ -7081,44 +7081,44 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="63" t="s">
         <v>1302</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="R19">
         <f>SUM(R15:R18)</f>
         <v>655534</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="63" t="s">
         <v>1303</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
       <c r="Q20" s="31">
         <f>Q18-Q14</f>
         <v>655360</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="56" t="s">
         <v>1321</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
     </row>
     <row r="25" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
       <c r="I25" t="s">
         <v>1336</v>
       </c>
@@ -7130,13 +7130,13 @@
       <c r="V25" s="45"/>
     </row>
     <row r="26" spans="1:23" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="56" t="s">
         <v>1322</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
       <c r="H26" t="s">
         <v>1340</v>
       </c>
@@ -7983,21 +7983,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="S25:V25"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23591,7 +23591,7 @@
       <c r="L236" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AH184">
+  <sortState ref="A5:AH184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
@@ -36979,6 +36979,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="J3:K3"/>
@@ -36995,14 +37003,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
